--- a/Final Project/Services_tags.xlsx
+++ b/Final Project/Services_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4677230C-918B-8846-A520-D67AE657DE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D070AD-9AE2-7A4E-A9DF-F45DC0DADBBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="480" windowWidth="25440" windowHeight="14300" xr2:uid="{9AFF5477-2138-3742-8E28-EBB6FC11192F}"/>
+    <workbookView xWindow="8200" yWindow="460" windowWidth="25440" windowHeight="14300" xr2:uid="{9AFF5477-2138-3742-8E28-EBB6FC11192F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Pedicure</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -127,16 +124,28 @@
   </si>
   <si>
     <t>coloring</t>
+  </si>
+  <si>
+    <t>general hair cut</t>
+  </si>
+  <si>
+    <t>pedicure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18399CA1-0781-CE4F-BB4F-6C210E1E2171}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,10 +504,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -506,10 +515,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -517,10 +526,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -528,10 +537,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -539,10 +548,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -550,10 +559,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -561,10 +570,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -572,10 +581,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -583,10 +592,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -594,10 +603,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -605,10 +614,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -616,10 +625,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -627,10 +636,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -638,10 +647,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -649,10 +658,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -660,10 +669,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -671,10 +680,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -682,10 +691,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -693,10 +702,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -704,10 +713,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -715,16 +724,28 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Final Project/Services_tags.xlsx
+++ b/Final Project/Services_tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D070AD-9AE2-7A4E-A9DF-F45DC0DADBBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34B58E2-3D91-9545-B1DF-634EBA6E5365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="460" windowWidth="25440" windowHeight="14300" xr2:uid="{9AFF5477-2138-3742-8E28-EBB6FC11192F}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="10940" windowHeight="14200" xr2:uid="{9AFF5477-2138-3742-8E28-EBB6FC11192F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Type</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>hair cut</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>massage</t>
   </si>
   <si>
-    <t>body massage</t>
-  </si>
-  <si>
     <t>facial</t>
   </si>
   <si>
@@ -130,6 +124,57 @@
   </si>
   <si>
     <t>pedicure</t>
+  </si>
+  <si>
+    <t>hair massage</t>
+  </si>
+  <si>
+    <t>G001-1</t>
+  </si>
+  <si>
+    <t>children's haircut</t>
+  </si>
+  <si>
+    <t>childrens haircut</t>
+  </si>
+  <si>
+    <t>children haircut</t>
+  </si>
+  <si>
+    <t>haircut</t>
+  </si>
+  <si>
+    <t>men haircut</t>
+  </si>
+  <si>
+    <t>G001-2</t>
+  </si>
+  <si>
+    <t>mens haircut</t>
+  </si>
+  <si>
+    <t>men's haircut</t>
+  </si>
+  <si>
+    <t>women haircut</t>
+  </si>
+  <si>
+    <t>womens haircut</t>
+  </si>
+  <si>
+    <t>women's haircut</t>
+  </si>
+  <si>
+    <t>G001-3</t>
+  </si>
+  <si>
+    <t>ladies haircut</t>
+  </si>
+  <si>
+    <t>scalp massage</t>
+  </si>
+  <si>
+    <t>head massage</t>
   </si>
 </sst>
 </file>
@@ -490,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18399CA1-0781-CE4F-BB4F-6C210E1E2171}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +560,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -526,7 +571,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -537,7 +582,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -548,10 +593,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -559,10 +604,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -570,10 +615,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -581,10 +626,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -592,10 +637,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -603,10 +648,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -614,10 +659,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -625,10 +670,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -636,10 +681,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -647,10 +692,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -658,10 +703,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -669,10 +714,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -680,10 +725,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -691,10 +736,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -702,10 +747,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -713,10 +758,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -724,10 +769,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -735,12 +780,155 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Final Project/Services_tags.xlsx
+++ b/Final Project/Services_tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34B58E2-3D91-9545-B1DF-634EBA6E5365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877B6CC5-4A85-9542-AE15-37208D44430D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="10940" windowHeight="14200" xr2:uid="{9AFF5477-2138-3742-8E28-EBB6FC11192F}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="12980" windowHeight="13960" xr2:uid="{9AFF5477-2138-3742-8E28-EBB6FC11192F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Type</t>
   </si>
@@ -175,6 +175,42 @@
   </si>
   <si>
     <t>head massage</t>
+  </si>
+  <si>
+    <t>beard cut</t>
+  </si>
+  <si>
+    <t>beardcut</t>
+  </si>
+  <si>
+    <t>G009</t>
+  </si>
+  <si>
+    <t>G010</t>
+  </si>
+  <si>
+    <t>men wax</t>
+  </si>
+  <si>
+    <t>men waxing</t>
+  </si>
+  <si>
+    <t>ladies wax</t>
+  </si>
+  <si>
+    <t>ladies waxing</t>
+  </si>
+  <si>
+    <t>G010-1</t>
+  </si>
+  <si>
+    <t>wax</t>
+  </si>
+  <si>
+    <t>waxing</t>
+  </si>
+  <si>
+    <t>G010-2</t>
   </si>
 </sst>
 </file>
@@ -535,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18399CA1-0781-CE4F-BB4F-6C210E1E2171}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +662,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>37</v>
@@ -637,7 +673,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>37</v>
@@ -659,7 +695,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>43</v>
@@ -670,7 +706,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -929,6 +965,94 @@
         <v>9</v>
       </c>
       <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Final Project/Services_tags.xlsx
+++ b/Final Project/Services_tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877B6CC5-4A85-9542-AE15-37208D44430D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC29DE-6491-8C47-86CF-E4A43E32095D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="12980" windowHeight="13960" xr2:uid="{9AFF5477-2138-3742-8E28-EBB6FC11192F}"/>
+    <workbookView xWindow="3440" yWindow="460" windowWidth="12980" windowHeight="13960" xr2:uid="{9AFF5477-2138-3742-8E28-EBB6FC11192F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18399CA1-0781-CE4F-BB4F-6C210E1E2171}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
